--- a/Risk Management/Risk management.xlsx
+++ b/Risk Management/Risk management.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fabian.dittebrand\Desktop\DHBW\SE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lorenz Seufert\IdeaProjects\CeangalMessenger---Documentation\Risk Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCF6F020-6CA9-44F0-8758-78C435EE8900}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4B229AC-DA5D-4A3D-97E2-526E39007BB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11746" xr2:uid="{63DA449B-6F2E-438A-9B09-D5D7153132A8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{63DA449B-6F2E-438A-9B09-D5D7153132A8}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Risk name</t>
   </si>
@@ -51,66 +51,68 @@
     <t>Risk factor</t>
   </si>
   <si>
-    <t>Risk mitigation</t>
-  </si>
-  <si>
     <t>Person in charge of Tracking</t>
   </si>
   <si>
     <t>Fabian Dittebrand</t>
   </si>
   <si>
-    <t>Using private id's for communication, which aren't visible for the users</t>
-  </si>
-  <si>
-    <t>Websocket safety</t>
-  </si>
-  <si>
-    <t>Websocket connection isn't safe</t>
-  </si>
-  <si>
-    <t>Login safety</t>
-  </si>
-  <si>
-    <t>Login isn't safe</t>
-  </si>
-  <si>
-    <t>encrypting login data</t>
-  </si>
-  <si>
     <t>Lorenz Seufert</t>
   </si>
   <si>
-    <t>private server access</t>
-  </si>
-  <si>
-    <t>Database leakage</t>
-  </si>
-  <si>
-    <t>Database data is leaked to the outside</t>
-  </si>
-  <si>
     <t>Lennart Royl</t>
   </si>
   <si>
-    <t>interfaces for the backend and frontend
-are undefined</t>
-  </si>
-  <si>
-    <t>defining interfaces</t>
-  </si>
-  <si>
     <t>David Bullinger</t>
   </si>
   <si>
-    <t>Interface definition</t>
+    <t>Risk Mitigation</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Loosing our code/documentation</t>
+  </si>
+  <si>
+    <t>Problems with Pc or HDD/SSD, or messing up the Git repos</t>
+  </si>
+  <si>
+    <t>Make backups, push everytime something changes</t>
+  </si>
+  <si>
+    <t>Wrong/ineffective communication</t>
+  </si>
+  <si>
+    <t>Loose time by not sharing enough information or talking. Dont understand what is required</t>
+  </si>
+  <si>
+    <t>Make clear instructions and make sure everbody understands</t>
+  </si>
+  <si>
+    <t>No Internet</t>
+  </si>
+  <si>
+    <t>Internet disconnected</t>
+  </si>
+  <si>
+    <t>Communicate over text messages and make things lokal</t>
+  </si>
+  <si>
+    <t>Not enough time</t>
+  </si>
+  <si>
+    <t>Have not enough time to fullfill our scope or tasks caused by exams or other lectures</t>
+  </si>
+  <si>
+    <t>Rearrange scope. Do the important things first.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -119,23 +121,60 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -143,18 +182,45 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
+    <cellStyle name="Schlecht" xfId="1" builtinId="27"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -467,254 +533,152 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87C724C5-D0AC-469D-877B-B73498469B3A}">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A8:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.73046875" customWidth="1"/>
-    <col min="2" max="2" width="35.19921875" customWidth="1"/>
-    <col min="3" max="3" width="24.33203125" customWidth="1"/>
-    <col min="4" max="4" width="10.46484375" customWidth="1"/>
-    <col min="5" max="5" width="9.46484375" customWidth="1"/>
-    <col min="6" max="6" width="58.796875" customWidth="1"/>
-    <col min="7" max="7" width="25.53125" customWidth="1"/>
+    <col min="1" max="1" width="19.7109375" customWidth="1"/>
+    <col min="2" max="2" width="38.42578125" customWidth="1"/>
+    <col min="3" max="3" width="33.42578125" customWidth="1"/>
+    <col min="4" max="4" width="33.28515625" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" customWidth="1"/>
+    <col min="7" max="7" width="30.85546875" customWidth="1"/>
+    <col min="8" max="8" width="30.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+    </row>
+    <row r="9" spans="1:8" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>1</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="4">
+        <v>7</v>
+      </c>
+      <c r="E9" s="4">
+        <v>7</v>
+      </c>
+      <c r="F9" s="4">
+        <v>49</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>2</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="4">
         <v>6</v>
       </c>
+      <c r="E10" s="4">
+        <v>4</v>
+      </c>
+      <c r="F10" s="4">
+        <v>24</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2">
+    <row r="11" spans="1:8" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
         <v>3</v>
       </c>
-      <c r="D2">
-        <v>9</v>
-      </c>
-      <c r="E2">
-        <f t="shared" ref="E2:E24" si="0">C2*D2</f>
-        <v>27</v>
-      </c>
-      <c r="F2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="B11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="4">
+        <v>5</v>
+      </c>
+      <c r="E11" s="4">
+        <v>3</v>
+      </c>
+      <c r="F11" s="4">
+        <v>15</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>4</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="4">
+        <v>2</v>
+      </c>
+      <c r="E12" s="4">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3">
-        <v>10</v>
-      </c>
-      <c r="E3">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="F12" s="4">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>10</v>
-      </c>
-      <c r="E4">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="F4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5">
-        <v>6</v>
-      </c>
-      <c r="D5">
-        <v>6</v>
-      </c>
-      <c r="E5">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="F5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="E6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="E7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="E8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="E9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="E10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="E11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="E12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="E13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="E14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="E15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="E16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.45">
-      <c r="E17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="5:5" x14ac:dyDescent="0.45">
-      <c r="E18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="5:5" x14ac:dyDescent="0.45">
-      <c r="E19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="5:5" x14ac:dyDescent="0.45">
-      <c r="E20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="5:5" x14ac:dyDescent="0.45">
-      <c r="E21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="5:5" x14ac:dyDescent="0.45">
-      <c r="E22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="5:5" x14ac:dyDescent="0.45">
-      <c r="E23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="5:5" x14ac:dyDescent="0.45">
-      <c r="E24">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
